--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_Cham_Cong.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_Cham_Cong.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sup9\source\repos\TMTDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sup9\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2C1AC4-F48C-4383-BAFD-5FB4985C0E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0325CE-0599-4F91-902D-9D9151E28C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,123 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>sup9</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{76C66FAA-974D-43E9-BB59-516B1D53695A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mã NV: 
+Mã nhân viên trong phần mềm (Không được để trống)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3884DB83-1702-45B3-92B7-3A9E2B9F268A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày: Ngày được chấm công (Không được để trống)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{20D0D6CE-50A8-444D-B183-C07C02E9AD15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Thời gian vào/ra
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6ED39E80-A4F4-4A2B-A07E-2898481E31C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Kiểu: 
+Check-in: vào (Cột thời gian không được để trống)
+Check-out: ra (Cột thời gian có thể trống)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FEB7E4B7-5636-48A8-89D3-5CEB45A0111A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mã loại chấm công
+mặc định: tkp
+(không được để trống)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
@@ -58,13 +175,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,10 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,11 +509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,22 +523,23 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -509,5 +649,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_Cham_Cong.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_Cham_Cong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sup9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sup9\Desktop\Clone-Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0325CE-0599-4F91-902D-9D9151E28C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE146BA-DCC1-4A6F-A568-60176B082378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,16 +65,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ngày: Ngày được chấm công (Không được để trống)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Định dạng: tháng/ngày/Năm
 </t>
         </r>
       </text>
@@ -89,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Thời gian vào/ra
+          <t xml:space="preserve">Thời gian là bắt buộc dù là kiểu check-in hay check-out
 </t>
         </r>
         <r>
@@ -114,10 +105,10 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Kiểu: 
-Check-in: vào (Cột thời gian không được để trống)
-Check-out: ra (Cột thời gian có thể trống)
-</t>
+          <t>Chọn 1 trong 2: 
+Check-in: Thời gian vào.
+Check-out: Thời gian ra. 
+(Không được để trống)</t>
         </r>
       </text>
     </comment>
@@ -225,11 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,27 +502,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -548,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>44047</v>
+        <v>44076</v>
       </c>
       <c r="C2" s="2">
         <v>0.33333333333333331</v>
@@ -565,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>44047</v>
+        <v>44076</v>
       </c>
       <c r="C3" s="2">
         <v>0.5</v>
@@ -576,76 +569,6 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
